--- a/BPS_FH_Dataset/10/phrases.xlsx
+++ b/BPS_FH_Dataset/10/phrases.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Data Set\BPS Dataset\10 x\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Documents\GitHub\functional-harmony\BPS_FH_Dataset\10\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F0857B-CACC-4E7E-B8B1-C8AC1030C5E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -237,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -599,19 +600,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>-0.75</v>
       </c>
@@ -628,7 +629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>15.5</v>
       </c>
@@ -645,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>20.75</v>
       </c>
@@ -662,7 +663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>24.5</v>
       </c>
@@ -679,7 +680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>29.5</v>
       </c>
@@ -696,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>33.5</v>
       </c>
@@ -713,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>39</v>
       </c>
@@ -730,7 +731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>43</v>
       </c>
@@ -747,7 +748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>50</v>
       </c>
@@ -764,7 +765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>58</v>
       </c>
@@ -781,7 +782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>64</v>
       </c>
@@ -798,7 +799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>72</v>
       </c>
@@ -815,7 +816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>92.5</v>
       </c>
@@ -832,7 +833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>100.5</v>
       </c>
@@ -849,7 +850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>114</v>
       </c>
@@ -866,7 +867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>125.25</v>
       </c>
@@ -883,7 +884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>141.5</v>
       </c>
@@ -900,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>146.75</v>
       </c>
@@ -917,7 +918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>150.5</v>
       </c>
@@ -934,7 +935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>155.5</v>
       </c>
@@ -951,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>159.5</v>
       </c>
@@ -968,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>165</v>
       </c>
@@ -985,7 +986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>169</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>176</v>
       </c>
@@ -1019,7 +1020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>184</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>190</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>198</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>218.5</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>226.5</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>240</v>
       </c>
@@ -1121,9 +1122,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <v>201.25</v>
+        <v>251.25</v>
       </c>
       <c r="B31" s="1">
         <v>272.5</v>
@@ -1138,7 +1139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>272</v>
       </c>
@@ -1155,7 +1156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>280</v>
       </c>
@@ -1173,7 +1174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>287.25</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>297.25</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>306.25</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>310.25</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>321.25</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>338</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>342</v>
       </c>
@@ -1295,7 +1296,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>346</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
         <v>355.25</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>373.25</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>389</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>394.75</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>398.5</v>
       </c>
@@ -1398,7 +1399,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>402.75</v>
       </c>
@@ -1415,7 +1416,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>405.25</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>409.5</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>413.5</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>419</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>423</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>430</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>438</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>444</v>
       </c>
@@ -1551,7 +1552,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>452</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>472.5</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>480.5</v>
       </c>
@@ -1602,7 +1603,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>499.25</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>507.25</v>
       </c>
